--- a/ABSLITest/src/main/java/com/ABSLI/qa/testdata/claims/ClaimData.xlsx
+++ b/ABSLITest/src/main/java/com/ABSLI/qa/testdata/claims/ClaimData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallikandan E\git\Manikandan-AutomationScript\ABSLITest\src\main\java\com\ABSLI\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallikandan E\git\Manikandan-AutomationScript\ABSLITest\src\main\java\com\ABSLI\qa\testdata\claims\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7245" windowHeight="5955" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7245" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="ClaimIntimation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Location Of Event</t>
   </si>
@@ -152,10 +152,28 @@
     <t>10/04/2024</t>
   </si>
   <si>
-    <t>ABSLI012024000000101932</t>
-  </si>
-  <si>
     <t>Aadhar Card</t>
+  </si>
+  <si>
+    <t>Riders</t>
+  </si>
+  <si>
+    <t>ABSLI012024000000102073</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
 </sst>
 </file>
@@ -242,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -254,9 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,26 +567,28 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -578,117 +599,135 @@
         <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3">
+        <v>987654321</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3">
+        <v>100</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="3">
-        <v>987654321</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3">
-        <v>100</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -768,9 +807,9 @@
       <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -788,9 +827,9 @@
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -810,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
